--- a/temp/确定被试时间.xlsx
+++ b/temp/确定被试时间.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="25924"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26009"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="14480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="12800" windowHeight="14480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="73">
   <si>
     <t>周一</t>
   </si>
@@ -138,24 +138,124 @@
   </si>
   <si>
     <t>李俊波</t>
+  </si>
+  <si>
+    <t>22:00-23:30</t>
+  </si>
+  <si>
+    <t>于晓腾</t>
+  </si>
+  <si>
+    <t>靳子豪</t>
+  </si>
+  <si>
+    <t>9:30-11:00</t>
+  </si>
+  <si>
+    <t>郑昊</t>
+  </si>
+  <si>
+    <t>邵韵秋</t>
+  </si>
+  <si>
+    <t>周四</t>
+  </si>
+  <si>
+    <t>岳圆</t>
+  </si>
+  <si>
+    <t>姜伟峰</t>
+  </si>
+  <si>
+    <t>孟繁悦</t>
+  </si>
+  <si>
+    <t>李凌劼</t>
+  </si>
+  <si>
+    <t>罗成</t>
+  </si>
+  <si>
+    <t>张帆</t>
+  </si>
+  <si>
+    <t>李雪</t>
+  </si>
+  <si>
+    <t>张帆+罗成</t>
+  </si>
+  <si>
+    <t>刘晓笙</t>
+  </si>
+  <si>
+    <t>庄天翼</t>
+  </si>
+  <si>
+    <t>郭睿</t>
+  </si>
+  <si>
+    <t>李柄辉</t>
+  </si>
+  <si>
+    <t>陈伟楠</t>
+  </si>
+  <si>
+    <t>陈润方</t>
+  </si>
+  <si>
+    <t>许晨晔</t>
+  </si>
+  <si>
+    <t>下周三</t>
+  </si>
+  <si>
+    <t>范佳悦</t>
+  </si>
+  <si>
+    <t>李凌</t>
+  </si>
+  <si>
+    <t>张浩天</t>
+  </si>
+  <si>
+    <t>马琳</t>
+  </si>
+  <si>
+    <t>李松原</t>
+  </si>
+  <si>
+    <t>姚宇轩</t>
+  </si>
+  <si>
+    <t>张翼</t>
+  </si>
+  <si>
+    <t>郑奡</t>
+  </si>
+  <si>
+    <t>张强</t>
+  </si>
+  <si>
+    <t>高宇婷</t>
+  </si>
+  <si>
+    <t>田肖</t>
+  </si>
+  <si>
+    <t>王晶晶</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color rgb="FF323232"/>
-      <name val="Arial"/>
     </font>
     <font>
       <u/>
@@ -173,6 +273,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="FangSong"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF323232"/>
+      <name val="FangSong"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="FangSong"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF323232"/>
+      <name val="FangSong"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -182,7 +312,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -190,31 +320,238 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="103">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -490,244 +827,784 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.1640625" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="14.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
+      <c r="E6" s="4">
+        <v>18813003088</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
+      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="4">
+        <v>13261766979</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="4">
+        <v>17888836932</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="4">
+        <v>17801050847</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.15">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.15">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.15">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="18" x14ac:dyDescent="0.15">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="18" x14ac:dyDescent="0.15">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="C37" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C40" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" ht="18" x14ac:dyDescent="0.15">
+      <c r="B41" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" ht="18" x14ac:dyDescent="0.15">
+      <c r="B42" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" ht="18" x14ac:dyDescent="0.15">
+      <c r="B43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" ht="18" x14ac:dyDescent="0.15">
+      <c r="B44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B45" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" ht="18" x14ac:dyDescent="0.15">
+      <c r="A47" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B48" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B49" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B51" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="18" x14ac:dyDescent="0.15">
+      <c r="A53" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="20" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
+      <c r="C53" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B54" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="20" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="20" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>35</v>
+      <c r="C54" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
